--- a/documentation/ERD.xlsx
+++ b/documentation/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregl\Work\repos\IMS-Starter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAAD82E-EC91-432B-AB7E-F221E0E44AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B50AA2-A640-4A54-B983-5F26BFD5115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A6DFECF1-3B48-4221-960A-B28801510EDB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>ERD</t>
   </si>
@@ -63,24 +63,15 @@
     <t>int</t>
   </si>
   <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>date ordered</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
@@ -106,6 +97,24 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>int, not null</t>
+  </si>
+  <si>
+    <t>varchar(40), not null</t>
+  </si>
+  <si>
+    <t>varchar(40) ,not null</t>
+  </si>
+  <si>
+    <t>date, not null</t>
+  </si>
+  <si>
+    <t>float,not null</t>
+  </si>
+  <si>
+    <t>float, not null</t>
   </si>
 </sst>
 </file>
@@ -401,15 +410,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>607541</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128973</xdr:rowOff>
+      <xdr:colOff>839931</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>607541</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128973</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120690</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -424,8 +433,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9241825" y="1701885"/>
-          <a:ext cx="1220230" cy="0"/>
+          <a:off x="10274011" y="1692315"/>
+          <a:ext cx="1220932" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -953,18 +962,21 @@
   </sheetPr>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:S12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="B9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -975,7 +987,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -983,13 +995,13 @@
         <v>2</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -997,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>7</v>
@@ -1006,13 +1018,13 @@
         <v>8</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -1026,28 +1038,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>7</v>
@@ -1062,28 +1074,28 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1092,20 +1104,20 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="L11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
@@ -1117,16 +1129,16 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="Q12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documentation/ERD.xlsx
+++ b/documentation/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregl\Work\repos\IMS-Starter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B50AA2-A640-4A54-B983-5F26BFD5115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56940343-B685-49BF-AC8E-1B5AAD4E1182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A6DFECF1-3B48-4221-960A-B28801510EDB}"/>
   </bookViews>
@@ -409,14 +409,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>839931</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4661</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>120690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>120690</xdr:rowOff>
     </xdr:to>
@@ -433,158 +433,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10274011" y="1692315"/>
-          <a:ext cx="1220932" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552597</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>105841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>607541</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>122169</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA49AD7-4A69-4D4F-A048-E0D2AD8D401E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10407111" y="1678753"/>
-          <a:ext cx="54944" cy="16328"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552597</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601583</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>149383</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667C8611-4EC9-47B8-8F2F-65AF93146F6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10407111" y="1700524"/>
-          <a:ext cx="48986" cy="21771"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>30083</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>100398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>30083</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>154826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F14E7A-2A86-4193-890A-1B708E0975E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9274482" y="1673310"/>
-          <a:ext cx="0" cy="54428"/>
+          <a:off x="10247699" y="1695978"/>
+          <a:ext cx="1211608" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -963,7 +813,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="B9:D11"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
